--- a/static/forms/codes.xlsx
+++ b/static/forms/codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bepa\Desktop\local_a10\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bepa\bepa-sup\static\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4888C12-2166-44F9-85EE-0F8F8F42D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB40340-CF29-46B5-A6B4-910892F9AA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{348FFDBF-8D47-41F7-AE21-129AD1411BF4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{348FFDBF-8D47-41F7-AE21-129AD1411BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="은행" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="181">
   <si>
     <t>한국</t>
   </si>
@@ -563,14 +563,6 @@
     <t>계장</t>
   </si>
   <si>
-    <t>52940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터전략TF팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,6 +572,22 @@
   </si>
   <si>
     <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI혁신팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업성장팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,7 +1105,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1">
         <v>230</v>
@@ -1329,7 +1337,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1">
         <v>900</v>
@@ -1377,7 +1385,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1">
         <v>920</v>
@@ -1399,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDE33D0-C49B-41A8-8253-8FE8DC58C931}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1630,10 +1638,18 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF88E03-C3D9-4003-9213-B8126316DF22}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
